--- a/biology/Botanique/Jardin_des_Grands-Explorateurs_Marco-Polo_et_Cavelier-de-la-Salle/Jardin_des_Grands-Explorateurs_Marco-Polo_et_Cavelier-de-la-Salle.xlsx
+++ b/biology/Botanique/Jardin_des_Grands-Explorateurs_Marco-Polo_et_Cavelier-de-la-Salle/Jardin_des_Grands-Explorateurs_Marco-Polo_et_Cavelier-de-la-Salle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des Grands-Explorateurs Marco-Polo et Cavelier-de-la-Salle est un espace vert du 6e arrondissement de Paris, en France.
@@ -513,10 +525,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé entre la place Ernest-Denis et l'avenue de l'Observatoire, il est dans la continuité du jardin du Luxembourg, dont il est séparé par la place André-Honnorat et l'esplanade Gaston-Monnerville. Cette proximité lui vaut le surnom de « petit Luco » par les habitués.
-Le site est accessible par l'avenue de l'Observatoire[1]. Il est ouvert à des horaires réglementés[1].
+Le site est accessible par l'avenue de l'Observatoire. Il est ouvert à des horaires réglementés.
 Il est desservi par la ligne 4 à la station Vavin et par la ligne B du RER à la gare de Port-Royal.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin honore les explorateurs Marco Polo (1254-1324) et René-Robert Cavelier de La Salle (1643-1687)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin honore les explorateurs Marco Polo (1254-1324) et René-Robert Cavelier de La Salle (1643-1687).
 </t>
         </is>
       </c>
@@ -577,14 +593,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé en 1867.
-Il accueille la fontaine des Quatre-Parties-du-Monde (1875), œuvre de Gabriel Davioud, Jean-Baptiste Carpeaux et Emmanuel Frémiet[1].
-Ses pelouses sont ornées de quatre statues : L'Aurore de François Jouffroy, marbre (1867), Le Jour de Jean-Joseph Perraud[1], pierre (c. 1870-1875), Le Crépuscule de Gustave Crauk et La Nuit de Charles Gumery.
+Il accueille la fontaine des Quatre-Parties-du-Monde (1875), œuvre de Gabriel Davioud, Jean-Baptiste Carpeaux et Emmanuel Frémiet.
+Ses pelouses sont ornées de quatre statues : L'Aurore de François Jouffroy, marbre (1867), Le Jour de Jean-Joseph Perraud, pierre (c. 1870-1875), Le Crépuscule de Gustave Crauk et La Nuit de Charles Gumery.
 Une de ses allées porte le nom de la résistante Denise Vernay, l'allée Denise-Vernay, et une autre celui de la femme politique Nicole Fontaine, l'allée Nicole-Fontaine.
 En 1959, le jardin est l'un des lieux de l'affaire dite « de l'Observatoire ».
-Il accueille plusieurs équipements : des bancs, une aire de jeux, des bacs à sable, des agrès, des tables de ping-pong, des points d'eau potable et un espace canin[1].
+Il accueille plusieurs équipements : des bancs, une aire de jeux, des bacs à sable, des agrès, des tables de ping-pong, des points d'eau potable et un espace canin.
 			Le jardin en 1875.
 			Le jardin en 1897.
 </t>
@@ -615,7 +633,9 @@
           <t>Statuaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			L'Aurore de François Jouffroy.
